--- a/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1470,18 +1470,18 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="23.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="25.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="53.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.775" customWidth="1"/>
+    <col min="5" max="5" width="25.8916666666667" customWidth="1"/>
+    <col min="6" max="6" width="53.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:6">

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24360" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>应急预案导入模板</t>
     </r>
     <r>
@@ -35,74 +29,10 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写须知：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.请勿增加、删除、或修改表格中的字段顺序、字段名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.请勿删除表格中填充颜色的字段；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+3.请勿删除表格中填充颜色的字段；
 </t>
     </r>
     <r>
@@ -121,40 +51,9 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预案类型:综合应急预案/专项应急预案/现场处置方案；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应急队伍名称：可输入多个队伍，用分号“:”分隔；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+预案类型:综合应急预案/专项应急预案/现场处置方案；
+应急队伍名称：可输入多个队伍，用分号“:”分隔；
+应急预案编号：需填系统中存在的物资；
 </t>
     </r>
   </si>
@@ -245,6 +144,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -408,12 +313,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -910,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,34 +821,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,94 +857,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,19 +961,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1089,7 +988,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1116,10 +1015,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1471,7 +1370,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1498,11 +1397,11 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24360" windowHeight="11160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="应急预案导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应急预案导入模板</t>
     </r>
     <r>
@@ -1369,8 +1375,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlan.xlsx
@@ -957,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,34 +979,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1032,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1376,7 +1385,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1418,153 +1427,153 @@
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:6">
-      <c r="A11" s="24">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" ht="22" customHeight="1" spans="1:6">
-      <c r="A12" s="24">
+      <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:6">
-      <c r="A13" s="24">
+      <c r="A13" s="26">
         <v>3</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:6">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1" spans="1:6">
-      <c r="A17" s="24">
+      <c r="A17" s="26">
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
@@ -1574,7 +1583,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" ht="29" customHeight="1" spans="1:6">
-      <c r="A18" s="24">
+      <c r="A18" s="26">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
@@ -1584,7 +1593,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:6">
-      <c r="A19" s="24">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
       <c r="B19" s="2"/>
@@ -1594,14 +1603,14 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="16">
